--- a/Experiment-2/Data.xlsx
+++ b/Experiment-2/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\核相关基础实验II\Experiment-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E6C3AA-D527-4722-B040-B88361EF3050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00AB392-DC12-4EA1-88D0-650A3CD33DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>mass density</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,15 +74,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>count margin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>count error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>count rate error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relative error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate relative error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,15 +416,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -433,19 +441,25 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>200</v>
       </c>
@@ -471,15 +485,23 @@
         <v>407.71681348700838</v>
       </c>
       <c r="H2">
+        <f>G2/F2</f>
+        <v>2.4526827614673886E-3</v>
+      </c>
+      <c r="I2">
         <f>F2/$A$2</f>
         <v>831.16499999999996</v>
       </c>
-      <c r="I2">
-        <f>SQRT(H2/$A$2)</f>
+      <c r="J2">
+        <f>SQRT(I2/$A$2)</f>
         <v>2.0385840674350422</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f>J2/I2</f>
+        <v>2.452682761467389E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>2.0350000000000001</v>
       </c>
@@ -495,19 +517,27 @@
         <v>141423</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G11" si="1">SQRT(F3)</f>
+        <f t="shared" ref="G3:G10" si="1">SQRT(F3)</f>
         <v>376.06249480638189</v>
       </c>
       <c r="H3">
+        <f t="shared" ref="H3:H11" si="2">G3/F3</f>
+        <v>2.6591324947595643E-3</v>
+      </c>
+      <c r="I3">
         <f>F3/$A$2</f>
         <v>707.11500000000001</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I11" si="2">SQRT(H3/$A$2)</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J10" si="3">SQRT(I3/$A$2)</f>
         <v>1.8803124740319095</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f t="shared" ref="K3:K11" si="4">J3/I3</f>
+        <v>2.6591324947595647E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>2.0430000000000001</v>
       </c>
@@ -527,15 +557,23 @@
         <v>345.91328393110319</v>
       </c>
       <c r="H4">
+        <f t="shared" si="2"/>
+        <v>2.8908979401877314E-3</v>
+      </c>
+      <c r="I4">
         <f>F4/$A$2</f>
         <v>598.28</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="2"/>
+      <c r="J4">
+        <f t="shared" si="3"/>
         <v>1.7295664196555158</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>2.8908979401877314E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>2.0510000000000002</v>
       </c>
@@ -555,15 +593,23 @@
         <v>319.37125731662201</v>
       </c>
       <c r="H5">
+        <f t="shared" si="2"/>
+        <v>3.1311521531463557E-3</v>
+      </c>
+      <c r="I5">
         <f>F5/$A$2</f>
         <v>509.99</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="2"/>
+      <c r="J5">
+        <f t="shared" si="3"/>
         <v>1.5968562865831102</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>3.1311521531463562E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2.0430000000000001</v>
       </c>
@@ -583,15 +629,23 @@
         <v>294.19041452773405</v>
       </c>
       <c r="H6">
+        <f t="shared" si="2"/>
+        <v>3.3991590161267047E-3</v>
+      </c>
+      <c r="I6">
         <f>F6/$A$2</f>
         <v>432.74</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="2"/>
+      <c r="J6">
+        <f t="shared" si="3"/>
         <v>1.4709520726386702</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>3.3991590161267047E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>2.0289999999999999</v>
       </c>
@@ -611,15 +665,23 @@
         <v>271.00369001177825</v>
       </c>
       <c r="H7">
+        <f t="shared" si="2"/>
+        <v>3.6899866564788783E-3</v>
+      </c>
+      <c r="I7">
         <f>F7/$A$2</f>
         <v>367.21499999999997</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="2"/>
+      <c r="J7">
+        <f t="shared" si="3"/>
         <v>1.3550184500588913</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>3.6899866564788788E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>2.0510000000000002</v>
       </c>
@@ -639,15 +701,23 @@
         <v>250.61923310073391</v>
       </c>
       <c r="H8">
+        <f t="shared" si="2"/>
+        <v>3.9901167505291182E-3</v>
+      </c>
+      <c r="I8">
         <f>F8/$A$2</f>
         <v>314.05</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="2"/>
+      <c r="J8">
+        <f t="shared" si="3"/>
         <v>1.2530961655036696</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>3.9901167505291182E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>2.0510000000000002</v>
       </c>
@@ -667,15 +737,23 @@
         <v>213.51112383199148</v>
       </c>
       <c r="H9">
+        <f t="shared" si="2"/>
+        <v>4.6835967234516744E-3</v>
+      </c>
+      <c r="I9">
         <f>F9/$A$2</f>
         <v>227.935</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="2"/>
+      <c r="J9">
+        <f t="shared" si="3"/>
         <v>1.0675556191599573</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>4.6835967234516744E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>1.9750000000000001</v>
       </c>
@@ -695,12 +773,20 @@
         <v>196.2676743633551</v>
       </c>
       <c r="H10">
+        <f t="shared" si="2"/>
+        <v>5.095082535846813E-3</v>
+      </c>
+      <c r="I10">
         <f>F10/$A$2</f>
         <v>192.60499999999999</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="2"/>
+      <c r="J10">
+        <f t="shared" si="3"/>
         <v>0.98133837181677552</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>5.0950825358468139E-3</v>
       </c>
     </row>
   </sheetData>
@@ -712,15 +798,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D918EF1-0273-4007-B7F2-4353F13A55E0}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I11"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -737,19 +823,25 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>200</v>
       </c>
@@ -775,15 +867,23 @@
         <v>407.71681348700838</v>
       </c>
       <c r="H2">
+        <f>G2/F2</f>
+        <v>2.4526827614673886E-3</v>
+      </c>
+      <c r="I2">
         <f>F2/$A$2</f>
         <v>831.16499999999996</v>
       </c>
-      <c r="I2">
-        <f>SQRT(H2/$A$2)</f>
+      <c r="J2">
+        <f>SQRT(I2/$A$2)</f>
         <v>2.0385840674350422</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f>J2/I2</f>
+        <v>2.452682761467389E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>2.0350000000000001</v>
       </c>
@@ -803,15 +903,23 @@
         <v>377.27708650274536</v>
       </c>
       <c r="H3">
+        <f t="shared" ref="H3:H11" si="2">G3/F3</f>
+        <v>2.6505717833800206E-3</v>
+      </c>
+      <c r="I3">
         <f>F3/$A$2</f>
         <v>711.69</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I11" si="2">SQRT(H3/$A$2)</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J11" si="3">SQRT(I3/$A$2)</f>
         <v>1.8863854325137268</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f t="shared" ref="K3:K11" si="4">J3/I3</f>
+        <v>2.6505717833800201E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>2.0430000000000001</v>
       </c>
@@ -831,15 +939,23 @@
         <v>348.92262752650481</v>
       </c>
       <c r="H4">
+        <f t="shared" si="2"/>
+        <v>2.8659648905230094E-3</v>
+      </c>
+      <c r="I4">
         <f>F4/$A$2</f>
         <v>608.73500000000001</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="2"/>
+      <c r="J4">
+        <f t="shared" si="3"/>
         <v>1.744613137632524</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>2.865964890523009E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>2.0510000000000002</v>
       </c>
@@ -859,15 +975,23 @@
         <v>327.09173025315084</v>
       </c>
       <c r="H5">
+        <f t="shared" si="2"/>
+        <v>3.0572463547948931E-3</v>
+      </c>
+      <c r="I5">
         <f>F5/$A$2</f>
         <v>534.94500000000005</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="2"/>
+      <c r="J5">
+        <f t="shared" si="3"/>
         <v>1.6354586512657543</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>3.0572463547948931E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2.0430000000000001</v>
       </c>
@@ -887,15 +1011,23 @@
         <v>304.00328945588728</v>
       </c>
       <c r="H6">
+        <f t="shared" si="2"/>
+        <v>3.289438090587194E-3</v>
+      </c>
+      <c r="I6">
         <f>F6/$A$2</f>
         <v>462.09</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="2"/>
+      <c r="J6">
+        <f t="shared" si="3"/>
         <v>1.5200164472794364</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>3.289438090587194E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>2.0289999999999999</v>
       </c>
@@ -915,15 +1047,23 @@
         <v>280.88253772707196</v>
       </c>
       <c r="H7">
+        <f t="shared" si="2"/>
+        <v>3.5602070819072433E-3</v>
+      </c>
+      <c r="I7">
         <f>F7/$A$2</f>
         <v>394.47500000000002</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="2"/>
+      <c r="J7">
+        <f t="shared" si="3"/>
         <v>1.4044126886353598</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>3.5602070819072433E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>2.0510000000000002</v>
       </c>
@@ -943,15 +1083,23 @@
         <v>260.55133851124236</v>
       </c>
       <c r="H8">
+        <f t="shared" si="2"/>
+        <v>3.8380152092630749E-3</v>
+      </c>
+      <c r="I8">
         <f>F8/$A$2</f>
         <v>339.435</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="2"/>
+      <c r="J8">
+        <f t="shared" si="3"/>
         <v>1.3027566925562117</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>3.8380152092630745E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>2.0510000000000002</v>
       </c>
@@ -971,15 +1119,23 @@
         <v>239.36791764979699</v>
       </c>
       <c r="H9">
+        <f t="shared" si="2"/>
+        <v>4.1776692959456336E-3</v>
+      </c>
+      <c r="I9">
         <f>F9/$A$2</f>
         <v>286.48500000000001</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="2"/>
+      <c r="J9">
+        <f t="shared" si="3"/>
         <v>1.1968395882489851</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>4.1776692959456345E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>1.9750000000000001</v>
       </c>
@@ -999,15 +1155,23 @@
         <v>224.96221905022185</v>
       </c>
       <c r="H10">
+        <f t="shared" si="2"/>
+        <v>4.4451908601450731E-3</v>
+      </c>
+      <c r="I10">
         <f>F10/$A$2</f>
         <v>253.04</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="2"/>
+      <c r="J10">
+        <f t="shared" si="3"/>
         <v>1.1248110952511092</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>4.4451908601450731E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>2.0270000000000001</v>
       </c>
@@ -1027,12 +1191,20 @@
         <v>193.0207242759181</v>
       </c>
       <c r="H11">
+        <f t="shared" si="2"/>
+        <v>5.1807908386589932E-3</v>
+      </c>
+      <c r="I11">
         <f>F11/$A$2</f>
         <v>186.285</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
+      <c r="J11">
+        <f t="shared" si="3"/>
         <v>0.96510362137959049</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>5.1807908386589932E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment-2/Data.xlsx
+++ b/Experiment-2/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\核相关基础实验II\Experiment-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00AB392-DC12-4EA1-88D0-650A3CD33DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F761FA10-73C1-487A-9425-30F53A7357DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Al1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>mass density</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,19 +46,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Total Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Background</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -67,10 +55,6 @@
   </si>
   <si>
     <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -91,6 +75,14 @@
   </si>
   <si>
     <t>rate relative error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net count rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>row number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,18 +410,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -438,25 +430,25 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
       <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -489,7 +481,7 @@
         <v>2.4526827614673886E-3</v>
       </c>
       <c r="I2">
-        <f>F2/$A$2</f>
+        <f t="shared" ref="I2:I10" si="0">F2/$A$2</f>
         <v>831.16499999999996</v>
       </c>
       <c r="J2">
@@ -513,27 +505,27 @@
         <v>144764</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F10" si="0">E3-$B$2</f>
+        <f t="shared" ref="F3:F10" si="1">E3-$B$2</f>
         <v>141423</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G10" si="1">SQRT(F3)</f>
+        <f t="shared" ref="G3:G10" si="2">SQRT(F3)</f>
         <v>376.06249480638189</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H11" si="2">G3/F3</f>
+        <f t="shared" ref="H3:H10" si="3">G3/F3</f>
         <v>2.6591324947595643E-3</v>
       </c>
       <c r="I3">
-        <f>F3/$A$2</f>
+        <f t="shared" si="0"/>
         <v>707.11500000000001</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J10" si="3">SQRT(I3/$A$2)</f>
+        <f t="shared" ref="J3:J10" si="4">SQRT(I3/$A$2)</f>
         <v>1.8803124740319095</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K11" si="4">J3/I3</f>
+        <f t="shared" ref="K3:K10" si="5">J3/I3</f>
         <v>2.6591324947595647E-3</v>
       </c>
     </row>
@@ -549,27 +541,27 @@
         <v>122997</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>119656</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>345.91328393110319</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8908979401877314E-3</v>
       </c>
       <c r="I4">
-        <f>F4/$A$2</f>
+        <f t="shared" si="0"/>
         <v>598.28</v>
       </c>
       <c r="J4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7295664196555158</v>
       </c>
       <c r="K4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8908979401877314E-3</v>
       </c>
     </row>
@@ -585,27 +577,27 @@
         <v>105339</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>101998</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>319.37125731662201</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1311521531463557E-3</v>
       </c>
       <c r="I5">
-        <f>F5/$A$2</f>
+        <f t="shared" si="0"/>
         <v>509.99</v>
       </c>
       <c r="J5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5968562865831102</v>
       </c>
       <c r="K5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1311521531463562E-3</v>
       </c>
     </row>
@@ -621,27 +613,27 @@
         <v>89889</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>86548</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>294.19041452773405</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3991590161267047E-3</v>
       </c>
       <c r="I6">
-        <f>F6/$A$2</f>
+        <f t="shared" si="0"/>
         <v>432.74</v>
       </c>
       <c r="J6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4709520726386702</v>
       </c>
       <c r="K6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3991590161267047E-3</v>
       </c>
     </row>
@@ -657,27 +649,27 @@
         <v>76784</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73443</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>271.00369001177825</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.6899866564788783E-3</v>
       </c>
       <c r="I7">
-        <f>F7/$A$2</f>
+        <f t="shared" si="0"/>
         <v>367.21499999999997</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3550184500588913</v>
       </c>
       <c r="K7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6899866564788788E-3</v>
       </c>
     </row>
@@ -693,27 +685,27 @@
         <v>66151</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62810</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250.61923310073391</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.9901167505291182E-3</v>
       </c>
       <c r="I8">
-        <f>F8/$A$2</f>
+        <f t="shared" si="0"/>
         <v>314.05</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2530961655036696</v>
       </c>
       <c r="K8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9901167505291182E-3</v>
       </c>
     </row>
@@ -729,27 +721,27 @@
         <v>48928</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45587</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>213.51112383199148</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.6835967234516744E-3</v>
       </c>
       <c r="I9">
-        <f>F9/$A$2</f>
+        <f t="shared" si="0"/>
         <v>227.935</v>
       </c>
       <c r="J9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0675556191599573</v>
       </c>
       <c r="K9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.6835967234516744E-3</v>
       </c>
     </row>
@@ -765,27 +757,27 @@
         <v>41862</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38521</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>196.2676743633551</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.095082535846813E-3</v>
       </c>
       <c r="I10">
-        <f>F10/$A$2</f>
+        <f t="shared" si="0"/>
         <v>192.60499999999999</v>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.98133837181677552</v>
       </c>
       <c r="K10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.0950825358468139E-3</v>
       </c>
     </row>
@@ -801,17 +793,17 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -820,25 +812,25 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
       <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -871,7 +863,7 @@
         <v>2.4526827614673886E-3</v>
       </c>
       <c r="I2">
-        <f>F2/$A$2</f>
+        <f t="shared" ref="I2:I11" si="0">F2/$A$2</f>
         <v>831.16499999999996</v>
       </c>
       <c r="J2">
@@ -895,27 +887,27 @@
         <v>145679</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F11" si="0">E3-$B$2</f>
+        <f t="shared" ref="F3:F11" si="1">E3-$B$2</f>
         <v>142338</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G11" si="1">SQRT(F3)</f>
+        <f t="shared" ref="G3:G11" si="2">SQRT(F3)</f>
         <v>377.27708650274536</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H11" si="2">G3/F3</f>
+        <f t="shared" ref="H3:H11" si="3">G3/F3</f>
         <v>2.6505717833800206E-3</v>
       </c>
       <c r="I3">
-        <f>F3/$A$2</f>
+        <f t="shared" si="0"/>
         <v>711.69</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J11" si="3">SQRT(I3/$A$2)</f>
+        <f t="shared" ref="J3:J11" si="4">SQRT(I3/$A$2)</f>
         <v>1.8863854325137268</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K11" si="4">J3/I3</f>
+        <f t="shared" ref="K3:K11" si="5">J3/I3</f>
         <v>2.6505717833800201E-3</v>
       </c>
     </row>
@@ -931,27 +923,27 @@
         <v>125088</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>121747</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>348.92262752650481</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8659648905230094E-3</v>
       </c>
       <c r="I4">
-        <f>F4/$A$2</f>
+        <f t="shared" si="0"/>
         <v>608.73500000000001</v>
       </c>
       <c r="J4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.744613137632524</v>
       </c>
       <c r="K4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.865964890523009E-3</v>
       </c>
     </row>
@@ -967,27 +959,27 @@
         <v>110330</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>106989</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>327.09173025315084</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0572463547948931E-3</v>
       </c>
       <c r="I5">
-        <f>F5/$A$2</f>
+        <f t="shared" si="0"/>
         <v>534.94500000000005</v>
       </c>
       <c r="J5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6354586512657543</v>
       </c>
       <c r="K5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0572463547948931E-3</v>
       </c>
     </row>
@@ -1003,27 +995,27 @@
         <v>95759</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92418</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>304.00328945588728</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.289438090587194E-3</v>
       </c>
       <c r="I6">
-        <f>F6/$A$2</f>
+        <f t="shared" si="0"/>
         <v>462.09</v>
       </c>
       <c r="J6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5200164472794364</v>
       </c>
       <c r="K6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.289438090587194E-3</v>
       </c>
     </row>
@@ -1039,27 +1031,27 @@
         <v>82236</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78895</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>280.88253772707196</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5602070819072433E-3</v>
       </c>
       <c r="I7">
-        <f>F7/$A$2</f>
+        <f t="shared" si="0"/>
         <v>394.47500000000002</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4044126886353598</v>
       </c>
       <c r="K7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5602070819072433E-3</v>
       </c>
     </row>
@@ -1075,27 +1067,27 @@
         <v>71228</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67887</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>260.55133851124236</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8380152092630749E-3</v>
       </c>
       <c r="I8">
-        <f>F8/$A$2</f>
+        <f t="shared" si="0"/>
         <v>339.435</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3027566925562117</v>
       </c>
       <c r="K8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8380152092630745E-3</v>
       </c>
     </row>
@@ -1111,27 +1103,27 @@
         <v>60638</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57297</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>239.36791764979699</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.1776692959456336E-3</v>
       </c>
       <c r="I9">
-        <f>F9/$A$2</f>
+        <f t="shared" si="0"/>
         <v>286.48500000000001</v>
       </c>
       <c r="J9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1968395882489851</v>
       </c>
       <c r="K9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.1776692959456345E-3</v>
       </c>
     </row>
@@ -1147,27 +1139,27 @@
         <v>53949</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50608</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>224.96221905022185</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4451908601450731E-3</v>
       </c>
       <c r="I10">
-        <f>F10/$A$2</f>
+        <f t="shared" si="0"/>
         <v>253.04</v>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1248110952511092</v>
       </c>
       <c r="K10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.4451908601450731E-3</v>
       </c>
     </row>
@@ -1183,27 +1175,27 @@
         <v>40598</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37257</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>193.0207242759181</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.1807908386589932E-3</v>
       </c>
       <c r="I11">
-        <f>F11/$A$2</f>
+        <f t="shared" si="0"/>
         <v>186.285</v>
       </c>
       <c r="J11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96510362137959049</v>
       </c>
       <c r="K11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.1807908386589932E-3</v>
       </c>
     </row>
@@ -1216,190 +1208,429 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4AF4F2-59F2-4BBC-ADBC-832A735B5C60}">
-  <dimension ref="B1:F11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>ROW()-2</f>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <v>3040</v>
+      </c>
+      <c r="D2">
+        <v>3.43</v>
+      </c>
+      <c r="E2">
+        <f>A2*D$2</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>156385</v>
+      </c>
+      <c r="G2">
+        <f>F2-C$2</f>
+        <v>153345</v>
+      </c>
+      <c r="H2">
+        <f>SQRT(G2)</f>
+        <v>391.59290085495678</v>
+      </c>
+      <c r="I2">
+        <f>H2/G2</f>
+        <v>2.5536724435420571E-3</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J11" si="0">G2/$B$2</f>
+        <v>766.72500000000002</v>
+      </c>
+      <c r="K2">
+        <f>SQRT(J2/$B$2)</f>
+        <v>1.9579645042747837</v>
+      </c>
+      <c r="L2">
+        <f>K2/J2</f>
+        <v>2.5536724435420571E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A11" si="1">ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E11" si="2">A3*D$2</f>
+        <v>3.43</v>
+      </c>
+      <c r="F3">
+        <v>122634</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="3">F3-C$2</f>
+        <v>119594</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="4">SQRT(G3)</f>
+        <v>345.82365448303273</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I11" si="5">H3/G3</f>
+        <v>2.891647193697282E-3</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>597.97</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K11" si="6">SQRT(J3/$B$2)</f>
+        <v>1.7291182724151637</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L11" si="7">K3/J3</f>
+        <v>2.891647193697282E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>6.86</v>
+      </c>
+      <c r="F4">
+        <v>95122</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>92082</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="4"/>
+        <v>303.45016065245375</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="5"/>
+        <v>3.2954340767191604E-3</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>460.41</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="6"/>
+        <v>1.5172508032622689</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="7"/>
+        <v>3.2954340767191608E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>10.290000000000001</v>
+      </c>
+      <c r="F5">
+        <v>74248</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>71208</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
+        <v>266.848271495245</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="5"/>
+        <v>3.7474479201107321E-3</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>356.04</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>1.3342413574762251</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="7"/>
+        <v>3.7474479201107321E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>13.72</v>
+      </c>
+      <c r="F6">
+        <v>58420</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>55380</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>235.32955615476777</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="5"/>
+        <v>4.2493599883490028E-3</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>276.89999999999998</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>1.1766477807738389</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="7"/>
+        <v>4.2493599883490036E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>8422</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <f>B2/C2</f>
-        <v>842.2</v>
-      </c>
-      <c r="E2">
-        <f>3341/200</f>
-        <v>16.704999999999998</v>
-      </c>
-      <c r="F2">
-        <f>D2-$E$2</f>
-        <v>825.495</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>6446</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D11" si="0">B3/C3</f>
-        <v>644.6</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F11" si="1">D3-$E$2</f>
-        <v>627.89499999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>5165</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>516.5</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>499.79500000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>4064</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>406.4</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>389.69499999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>3094</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>309.39999999999998</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>292.69499999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>2511</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>251.1</v>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>17.150000000000002</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
-        <v>234.39499999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>3733</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>186.65</v>
+        <v>45429</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>42389</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>205.88589072590671</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>4.8570593957372602E-3</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>211.94499999999999</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>1.0294294536295336</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="7"/>
+        <v>4.8570593957372602E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>20.580000000000002</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
-        <v>169.94499999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>3036</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>151.80000000000001</v>
+        <v>39165</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>36125</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>190.06577808748213</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="5"/>
+        <v>5.2613364176465642E-3</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>180.625</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>0.95032889043741064</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="7"/>
+        <v>5.2613364176465642E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>24.01</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
-        <v>135.09500000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>3691</v>
-      </c>
-      <c r="C10">
-        <v>30</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>123.03333333333333</v>
+        <v>28578</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>25538</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>159.80613254815975</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="5"/>
+        <v>6.257582134394226E-3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>127.69</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>0.7990306627407987</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>6.257582134394226E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>27.44</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
-        <v>106.32833333333333</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>2961</v>
-      </c>
-      <c r="C11">
-        <v>30</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>98.7</v>
+        <v>22833</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>19793</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>140.68759717899798</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="5"/>
+        <v>7.1079471115544877E-3</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>98.965000000000003</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="6"/>
+        <v>0.70343798589498996</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="7"/>
+        <v>7.1079471115544886E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>30.87</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
-        <v>81.995000000000005</v>
+        <v>18365</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>15325</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>123.79418403139947</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="5"/>
+        <v>8.0779239172201929E-3</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>76.625</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="6"/>
+        <v>0.6189709201569974</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="7"/>
+        <v>8.0779239172201946E-3</v>
       </c>
     </row>
   </sheetData>
